--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/32_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="59">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
+  </si>
+  <si>
+    <t>Signal_Value_125</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -662,10 +668,16 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -677,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1010988340531174</v>
+        <v>0.1696057956428076</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0668636523347244</v>
+        <v>0.1008643285600982</v>
       </c>
       <c r="H2">
-        <v>0.06564243869397875</v>
+        <v>0.07621250064803448</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -698,37 +710,37 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01174687881814288</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1387155700046751</v>
+        <v>0.07933315278290164</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01401127122105918</v>
       </c>
       <c r="O2">
-        <v>0.1480593999244309</v>
+        <v>0.1391358103550387</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.006085109395790713</v>
       </c>
       <c r="R2">
-        <v>0.1296475057981424</v>
+        <v>0.1577616182825185</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.2531094073799869</v>
+        <v>0.1788798589297189</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03208782705695191</v>
+        <v>0.005238237462148498</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -749,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03858595623164139</v>
+        <v>0.06565621752035454</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01444252970420799</v>
+        <v>0.007216099199528989</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -772,10 +784,16 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -784,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09440458670469844</v>
+        <v>0.1836968285913363</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.037904250783357</v>
       </c>
       <c r="F3">
-        <v>0.08928568358160086</v>
+        <v>0.1134044716674662</v>
       </c>
       <c r="G3">
-        <v>0.1231695316628098</v>
+        <v>0.06538553657174485</v>
       </c>
       <c r="H3">
-        <v>0.001016097278780906</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -808,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06167035325117064</v>
+        <v>0.009577630970300904</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1488721541446479</v>
       </c>
       <c r="N3">
-        <v>0.1854554872073387</v>
+        <v>0.06378309621808376</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.08824543647009704</v>
       </c>
       <c r="Q3">
-        <v>0.09609757495256303</v>
+        <v>0.0555924022829143</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.05433043660933958</v>
       </c>
       <c r="S3">
-        <v>0.2004404370403535</v>
+        <v>0.06160369755414237</v>
       </c>
       <c r="T3">
-        <v>0.00400448844158176</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.04156828683272107</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003799006799241321</v>
+        <v>0.01078655718818654</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -853,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.06234203423049169</v>
       </c>
       <c r="AB3">
-        <v>0.06398104488107292</v>
+        <v>0.03529695379243873</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.009178512925452669</v>
       </c>
       <c r="AD3">
-        <v>0.03510742136606692</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -882,10 +900,16 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -897,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1955346710943545</v>
+        <v>0.09263409045925813</v>
       </c>
       <c r="F4">
-        <v>0.02503871942250605</v>
+        <v>0.04471416949266716</v>
       </c>
       <c r="G4">
-        <v>0.10073926783001</v>
+        <v>0.08130037984339769</v>
       </c>
       <c r="H4">
-        <v>0.07008884925579976</v>
+        <v>0.138819618370204</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02975864617659863</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -921,31 +945,31 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0731494926343001</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.09681703560635958</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06343881840481565</v>
+        <v>0.1900692402935978</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.03530148627196269</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.07022628979129746</v>
+        <v>0.09136038381320671</v>
       </c>
       <c r="S4">
-        <v>0.05215413099508406</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1468558975630559</v>
+        <v>0.1005862207857514</v>
       </c>
       <c r="U4">
-        <v>0.003397272532168043</v>
+        <v>0.03043292027494809</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -957,25 +981,25 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.004297036873502315</v>
+        <v>0.02232328244739581</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.002782963036357664</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.002545831642729405</v>
       </c>
       <c r="AB4">
-        <v>0.006172193742441649</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.03648801970699914</v>
+        <v>0.1236287415311852</v>
       </c>
       <c r="AD4">
-        <v>0.006998002194418473</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01330281608092464</v>
+        <v>0.04904351183270229</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -992,10 +1016,16 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1610451991759126</v>
+        <v>0.005952270627776003</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.1797837888459845</v>
       </c>
       <c r="G5">
-        <v>0.05234145078162396</v>
+        <v>0.04025758835224602</v>
       </c>
       <c r="H5">
-        <v>0.07908271028594668</v>
+        <v>0.1085103743152095</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.04460688564077229</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1028,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00122233208426858</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1098990033659103</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01724826651449359</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1493301293472525</v>
+        <v>0.1546251838729308</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.051110757535581</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.108745349979214</v>
+        <v>0.06635519585466368</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.02428057604127828</v>
       </c>
       <c r="T5">
-        <v>0.2091045593938385</v>
+        <v>0.08420199598213647</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.08826355283881959</v>
       </c>
       <c r="V5">
-        <v>0.01129712323415433</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.008203695880124847</v>
+        <v>0.001743626504840986</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.01667151702341386</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1079,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.07516797592595637</v>
+        <v>0.09039009980141965</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.02716921743844965</v>
       </c>
       <c r="AE5">
-        <v>0.01731220403130365</v>
+        <v>0.01607736932447759</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1102,10 +1132,16 @@
       <c r="AJ5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1117,58 +1153,58 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01215440627324932</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04588114994516361</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.06080645156699901</v>
+        <v>0.1238156401614066</v>
       </c>
       <c r="H6">
-        <v>0.1305609256222446</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03482846621177704</v>
+        <v>0.0710529001682554</v>
       </c>
       <c r="J6">
-        <v>0.01266075950643073</v>
+        <v>0.1061379816307709</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01535691282753153</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.002374518522432611</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2237667863129311</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01668104701167872</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1756846908939448</v>
       </c>
       <c r="R6">
-        <v>0.1278754036446064</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.008048243318566534</v>
+        <v>0.03325461352163177</v>
       </c>
       <c r="T6">
-        <v>0.1348666170706091</v>
+        <v>0.1444551786763082</v>
       </c>
       <c r="U6">
-        <v>0.03415564303509747</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02949805686565234</v>
+        <v>0.06285402552035023</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1180,28 +1216,28 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01178650308876554</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01984500918292502</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.08223347141206504</v>
+        <v>0.005174059703617449</v>
       </c>
       <c r="AD6">
-        <v>0.02004150957250685</v>
+        <v>0.003738570030696512</v>
       </c>
       <c r="AE6">
-        <v>0.02846108803090245</v>
+        <v>0.1663527203431249</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.05559665032775783</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1210,6 +1246,12 @@
         <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1262,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +1377,16 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1350,82 +1398,82 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1010988340531174</v>
+        <v>0.1696057956428076</v>
       </c>
       <c r="F2">
-        <v>0.1010988340531174</v>
+        <v>0.1696057956428076</v>
       </c>
       <c r="G2">
-        <v>0.1679624863878418</v>
+        <v>0.2704701242029058</v>
       </c>
       <c r="H2">
-        <v>0.2336049250818206</v>
+        <v>0.3466826248509403</v>
       </c>
       <c r="I2">
-        <v>0.2336049250818206</v>
+        <v>0.3466826248509403</v>
       </c>
       <c r="J2">
-        <v>0.2336049250818206</v>
+        <v>0.3466826248509403</v>
       </c>
       <c r="K2">
-        <v>0.2336049250818206</v>
+        <v>0.3466826248509403</v>
       </c>
       <c r="L2">
-        <v>0.2453518038999634</v>
+        <v>0.3466826248509403</v>
       </c>
       <c r="M2">
-        <v>0.3840673739046385</v>
+        <v>0.4260157776338419</v>
       </c>
       <c r="N2">
-        <v>0.3840673739046385</v>
+        <v>0.4400270488549011</v>
       </c>
       <c r="O2">
-        <v>0.5321267738290694</v>
+        <v>0.5791628592099398</v>
       </c>
       <c r="P2">
-        <v>0.5321267738290694</v>
+        <v>0.5791628592099398</v>
       </c>
       <c r="Q2">
-        <v>0.5321267738290694</v>
+        <v>0.5852479686057306</v>
       </c>
       <c r="R2">
-        <v>0.6617742796272118</v>
+        <v>0.743009586888249</v>
       </c>
       <c r="S2">
-        <v>0.6617742796272118</v>
+        <v>0.743009586888249</v>
       </c>
       <c r="T2">
-        <v>0.9148836870071987</v>
+        <v>0.9218894458179679</v>
       </c>
       <c r="U2">
-        <v>0.9148836870071987</v>
+        <v>0.9218894458179679</v>
       </c>
       <c r="V2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="W2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="X2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="Y2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="Z2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="AA2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="AB2">
-        <v>0.9469715140641506</v>
+        <v>0.9271276832801164</v>
       </c>
       <c r="AC2">
-        <v>0.985557470295792</v>
+        <v>0.992783900800471</v>
       </c>
       <c r="AD2">
-        <v>0.985557470295792</v>
+        <v>0.992783900800471</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1445,10 +1493,16 @@
       <c r="AJ2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1457,328 +1511,346 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09440458670469844</v>
+        <v>0.1836968285913363</v>
       </c>
       <c r="E3">
-        <v>0.09440458670469844</v>
+        <v>0.2216010793746934</v>
       </c>
       <c r="F3">
-        <v>0.1836902702862993</v>
+        <v>0.3350055510421596</v>
       </c>
       <c r="G3">
-        <v>0.3068598019491091</v>
+        <v>0.4003910876139044</v>
       </c>
       <c r="H3">
-        <v>0.30787589922789</v>
+        <v>0.4003910876139044</v>
       </c>
       <c r="I3">
-        <v>0.30787589922789</v>
+        <v>0.4003910876139044</v>
       </c>
       <c r="J3">
-        <v>0.30787589922789</v>
+        <v>0.4003910876139044</v>
       </c>
       <c r="K3">
-        <v>0.30787589922789</v>
+        <v>0.4003910876139044</v>
       </c>
       <c r="L3">
-        <v>0.3695462524790606</v>
+        <v>0.4099687185842053</v>
       </c>
       <c r="M3">
-        <v>0.3695462524790606</v>
+        <v>0.5588408727288532</v>
       </c>
       <c r="N3">
-        <v>0.5550017396863993</v>
+        <v>0.6226239689469369</v>
       </c>
       <c r="O3">
-        <v>0.5550017396863993</v>
+        <v>0.6226239689469369</v>
       </c>
       <c r="P3">
-        <v>0.5550017396863993</v>
+        <v>0.710869405417034</v>
       </c>
       <c r="Q3">
-        <v>0.6510993146389623</v>
+        <v>0.7664618076999483</v>
       </c>
       <c r="R3">
-        <v>0.6510993146389623</v>
+        <v>0.8207922443092879</v>
       </c>
       <c r="S3">
-        <v>0.8515397516793158</v>
+        <v>0.8823959418634303</v>
       </c>
       <c r="T3">
-        <v>0.8555442401208976</v>
+        <v>0.8823959418634303</v>
       </c>
       <c r="U3">
-        <v>0.8971125269536186</v>
+        <v>0.8823959418634303</v>
       </c>
       <c r="V3">
-        <v>0.8971125269536186</v>
+        <v>0.8823959418634303</v>
       </c>
       <c r="W3">
-        <v>0.8971125269536186</v>
+        <v>0.8823959418634303</v>
       </c>
       <c r="X3">
-        <v>0.9009115337528599</v>
+        <v>0.8931824990516168</v>
       </c>
       <c r="Y3">
-        <v>0.9009115337528599</v>
+        <v>0.8931824990516168</v>
       </c>
       <c r="Z3">
-        <v>0.9009115337528599</v>
+        <v>0.8931824990516168</v>
       </c>
       <c r="AA3">
-        <v>0.9009115337528599</v>
+        <v>0.9555245332821085</v>
       </c>
       <c r="AB3">
-        <v>0.9648925786339329</v>
+        <v>0.9908214870745472</v>
       </c>
       <c r="AC3">
-        <v>0.9648925786339329</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.09263409045925813</v>
+      </c>
+      <c r="F4">
+        <v>0.1373482599519253</v>
+      </c>
+      <c r="G4">
+        <v>0.218648639795323</v>
+      </c>
+      <c r="H4">
+        <v>0.357468258165527</v>
+      </c>
+      <c r="I4">
+        <v>0.3872269043421256</v>
+      </c>
+      <c r="J4">
+        <v>0.3872269043421256</v>
+      </c>
+      <c r="K4">
+        <v>0.3872269043421256</v>
+      </c>
+      <c r="L4">
+        <v>0.3872269043421256</v>
+      </c>
+      <c r="M4">
+        <v>0.3872269043421256</v>
+      </c>
+      <c r="N4">
+        <v>0.3872269043421256</v>
+      </c>
+      <c r="O4">
+        <v>0.5772961446357234</v>
+      </c>
+      <c r="P4">
+        <v>0.5772961446357234</v>
+      </c>
+      <c r="Q4">
+        <v>0.5772961446357234</v>
+      </c>
+      <c r="R4">
+        <v>0.6686565284489301</v>
+      </c>
+      <c r="S4">
+        <v>0.6686565284489301</v>
+      </c>
+      <c r="T4">
+        <v>0.7692427492346815</v>
+      </c>
+      <c r="U4">
+        <v>0.7996756695096295</v>
+      </c>
+      <c r="V4">
+        <v>0.7996756695096295</v>
+      </c>
+      <c r="W4">
+        <v>0.7996756695096295</v>
+      </c>
+      <c r="X4">
+        <v>0.7996756695096295</v>
+      </c>
+      <c r="Y4">
+        <v>0.8219989519570253</v>
+      </c>
+      <c r="Z4">
+        <v>0.8247819149933829</v>
+      </c>
+      <c r="AA4">
+        <v>0.8273277466361123</v>
+      </c>
+      <c r="AB4">
+        <v>0.8273277466361123</v>
+      </c>
+      <c r="AC4">
+        <v>0.9509564881672975</v>
+      </c>
+      <c r="AD4">
+        <v>0.9509564881672975</v>
+      </c>
+      <c r="AE4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AE3">
+      <c r="AF4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AF3">
+      <c r="AG4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AG3">
+      <c r="AH4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AH3">
+      <c r="AI4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AI3">
+      <c r="AJ4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AJ3">
+      <c r="AK4">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.1955346710943545</v>
-      </c>
-      <c r="F4">
-        <v>0.2205733905168606</v>
-      </c>
-      <c r="G4">
-        <v>0.3213126583468706</v>
-      </c>
-      <c r="H4">
-        <v>0.3914015076026704</v>
-      </c>
-      <c r="I4">
-        <v>0.3914015076026704</v>
-      </c>
-      <c r="J4">
-        <v>0.3914015076026704</v>
-      </c>
-      <c r="K4">
-        <v>0.3914015076026704</v>
-      </c>
-      <c r="L4">
-        <v>0.3914015076026704</v>
-      </c>
-      <c r="M4">
-        <v>0.4645510002369705</v>
-      </c>
-      <c r="N4">
-        <v>0.5613680358433301</v>
-      </c>
-      <c r="O4">
-        <v>0.6248068542481457</v>
-      </c>
-      <c r="P4">
-        <v>0.6248068542481457</v>
-      </c>
-      <c r="Q4">
-        <v>0.6601083405201085</v>
-      </c>
-      <c r="R4">
-        <v>0.7303346303114059</v>
-      </c>
-      <c r="S4">
-        <v>0.7824887613064899</v>
-      </c>
-      <c r="T4">
-        <v>0.9293446588695458</v>
-      </c>
-      <c r="U4">
-        <v>0.9327419314017138</v>
-      </c>
-      <c r="V4">
-        <v>0.9327419314017138</v>
-      </c>
-      <c r="W4">
-        <v>0.9327419314017138</v>
-      </c>
-      <c r="X4">
-        <v>0.9327419314017138</v>
-      </c>
-      <c r="Y4">
-        <v>0.9370389682752162</v>
-      </c>
-      <c r="Z4">
-        <v>0.9370389682752162</v>
-      </c>
-      <c r="AA4">
-        <v>0.9370389682752162</v>
-      </c>
-      <c r="AB4">
-        <v>0.9432111620176578</v>
-      </c>
-      <c r="AC4">
-        <v>0.9796991817246569</v>
-      </c>
-      <c r="AD4">
-        <v>0.9866971839190753</v>
-      </c>
-      <c r="AE4">
+      <c r="AL4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.005952270627776003</v>
+      </c>
+      <c r="F5">
+        <v>0.1857360594737605</v>
+      </c>
+      <c r="G5">
+        <v>0.2259936478260065</v>
+      </c>
+      <c r="H5">
+        <v>0.334504022141216</v>
+      </c>
+      <c r="I5">
+        <v>0.3791109077819883</v>
+      </c>
+      <c r="J5">
+        <v>0.3791109077819883</v>
+      </c>
+      <c r="K5">
+        <v>0.3791109077819883</v>
+      </c>
+      <c r="L5">
+        <v>0.3791109077819883</v>
+      </c>
+      <c r="M5">
+        <v>0.3791109077819883</v>
+      </c>
+      <c r="N5">
+        <v>0.3791109077819883</v>
+      </c>
+      <c r="O5">
+        <v>0.5337360916549192</v>
+      </c>
+      <c r="P5">
+        <v>0.5848468491905002</v>
+      </c>
+      <c r="Q5">
+        <v>0.5848468491905002</v>
+      </c>
+      <c r="R5">
+        <v>0.6512020450451639</v>
+      </c>
+      <c r="S5">
+        <v>0.6754826210864422</v>
+      </c>
+      <c r="T5">
+        <v>0.7596846170685787</v>
+      </c>
+      <c r="U5">
+        <v>0.8479481699073983</v>
+      </c>
+      <c r="V5">
+        <v>0.8479481699073983</v>
+      </c>
+      <c r="W5">
+        <v>0.8479481699073983</v>
+      </c>
+      <c r="X5">
+        <v>0.8479481699073983</v>
+      </c>
+      <c r="Y5">
+        <v>0.8496917964122392</v>
+      </c>
+      <c r="Z5">
+        <v>0.8663633134356531</v>
+      </c>
+      <c r="AA5">
+        <v>0.8663633134356531</v>
+      </c>
+      <c r="AB5">
+        <v>0.8663633134356531</v>
+      </c>
+      <c r="AC5">
+        <v>0.9567534132370727</v>
+      </c>
+      <c r="AD5">
+        <v>0.9839226306755224</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
-      <c r="AF4">
+      <c r="AF5">
         <v>1</v>
       </c>
-      <c r="AG4">
+      <c r="AG5">
         <v>1</v>
       </c>
-      <c r="AH4">
+      <c r="AH5">
         <v>1</v>
       </c>
-      <c r="AI4">
+      <c r="AI5">
         <v>1</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1610451991759126</v>
-      </c>
-      <c r="F5">
-        <v>0.1610451991759126</v>
-      </c>
-      <c r="G5">
-        <v>0.2133866499575366</v>
-      </c>
-      <c r="H5">
-        <v>0.2924693602434832</v>
-      </c>
-      <c r="I5">
-        <v>0.2924693602434832</v>
-      </c>
-      <c r="J5">
-        <v>0.2924693602434832</v>
-      </c>
-      <c r="K5">
-        <v>0.2924693602434832</v>
-      </c>
-      <c r="L5">
-        <v>0.2936916923277518</v>
-      </c>
-      <c r="M5">
-        <v>0.4035906956936622</v>
-      </c>
-      <c r="N5">
-        <v>0.4208389622081558</v>
-      </c>
-      <c r="O5">
-        <v>0.5701690915554083</v>
-      </c>
-      <c r="P5">
-        <v>0.5701690915554083</v>
-      </c>
-      <c r="Q5">
-        <v>0.5701690915554083</v>
-      </c>
-      <c r="R5">
-        <v>0.6789144415346222</v>
-      </c>
-      <c r="S5">
-        <v>0.6789144415346222</v>
-      </c>
-      <c r="T5">
-        <v>0.8880190009284608</v>
-      </c>
-      <c r="U5">
-        <v>0.8880190009284608</v>
-      </c>
-      <c r="V5">
-        <v>0.8993161241626151</v>
-      </c>
-      <c r="W5">
-        <v>0.8993161241626151</v>
-      </c>
-      <c r="X5">
-        <v>0.8993161241626151</v>
-      </c>
-      <c r="Y5">
-        <v>0.9075198200427399</v>
-      </c>
-      <c r="Z5">
-        <v>0.9075198200427399</v>
-      </c>
-      <c r="AA5">
-        <v>0.9075198200427399</v>
-      </c>
-      <c r="AB5">
-        <v>0.9075198200427399</v>
-      </c>
-      <c r="AC5">
-        <v>0.9826877959686963</v>
-      </c>
-      <c r="AD5">
-        <v>0.9826877959686963</v>
-      </c>
-      <c r="AE5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1790,100 +1862,106 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01215440627324932</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05803555621841293</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1188420077854119</v>
+        <v>0.1238156401614066</v>
       </c>
       <c r="H6">
-        <v>0.2494029334076566</v>
+        <v>0.1238156401614066</v>
       </c>
       <c r="I6">
-        <v>0.2842313996194336</v>
+        <v>0.194868540329662</v>
       </c>
       <c r="J6">
-        <v>0.2968921591258644</v>
+        <v>0.3010065219604329</v>
       </c>
       <c r="K6">
-        <v>0.2968921591258644</v>
+        <v>0.3163634347879645</v>
       </c>
       <c r="L6">
-        <v>0.2968921591258644</v>
+        <v>0.3163634347879645</v>
       </c>
       <c r="M6">
-        <v>0.299266677648297</v>
+        <v>0.3163634347879645</v>
       </c>
       <c r="N6">
-        <v>0.299266677648297</v>
+        <v>0.3163634347879645</v>
       </c>
       <c r="O6">
-        <v>0.5230334639612281</v>
+        <v>0.3163634347879645</v>
       </c>
       <c r="P6">
-        <v>0.5230334639612281</v>
+        <v>0.3330444817996432</v>
       </c>
       <c r="Q6">
-        <v>0.5230334639612281</v>
+        <v>0.508729172693588</v>
       </c>
       <c r="R6">
-        <v>0.6509088676058344</v>
+        <v>0.508729172693588</v>
       </c>
       <c r="S6">
-        <v>0.658957110924401</v>
+        <v>0.5419837862152197</v>
       </c>
       <c r="T6">
-        <v>0.7938237279950101</v>
+        <v>0.6864389648915279</v>
       </c>
       <c r="U6">
-        <v>0.8279793710301075</v>
+        <v>0.6864389648915279</v>
       </c>
       <c r="V6">
-        <v>0.8574774278957599</v>
+        <v>0.7492929904118781</v>
       </c>
       <c r="W6">
-        <v>0.8574774278957599</v>
+        <v>0.7492929904118781</v>
       </c>
       <c r="X6">
-        <v>0.8574774278957599</v>
+        <v>0.7492929904118781</v>
       </c>
       <c r="Y6">
-        <v>0.8574774278957599</v>
+        <v>0.7492929904118781</v>
       </c>
       <c r="Z6">
-        <v>0.8692639309845254</v>
+        <v>0.7492929904118781</v>
       </c>
       <c r="AA6">
-        <v>0.8692639309845254</v>
+        <v>0.7691379995948031</v>
       </c>
       <c r="AB6">
-        <v>0.8692639309845254</v>
+        <v>0.7691379995948031</v>
       </c>
       <c r="AC6">
-        <v>0.9514974023965904</v>
+        <v>0.7743120592984205</v>
       </c>
       <c r="AD6">
-        <v>0.9715389119690973</v>
+        <v>0.7780506293291171</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999997</v>
+        <v>0.9444033496722419</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999997</v>
+        <v>0.9444033496722419</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1901,48 +1979,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1957,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5321267738290694</v>
+        <v>0.5791628592099398</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1969,21 +2047,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +2070,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5550017396863993</v>
+        <v>0.5588408727288532</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2010,21 +2088,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2033,16 +2111,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5613680358433301</v>
+        <v>0.5772961446357234</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -2051,27 +2129,27 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2080,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5701690915554083</v>
+        <v>0.5337360916549192</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -2092,39 +2170,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5230334639612281</v>
+        <v>0.508729172693588</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2133,16 +2211,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2160,48 +2238,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2210,16 +2288,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9148836870071987</v>
+        <v>0.743009586888249</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -2228,21 +2306,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2251,16 +2329,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8515397516793158</v>
+        <v>0.710869405417034</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2269,21 +2347,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2292,16 +2370,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7692427492346815</v>
+      </c>
+      <c r="G4">
         <v>17</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7303346303114059</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -2310,27 +2388,27 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -2339,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8880190009284608</v>
+        <v>0.7596846170685787</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -2351,39 +2429,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7938237279950101</v>
+        <v>0.7492929904118781</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2392,16 +2470,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2497,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2475,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9148836870071987</v>
+        <v>0.9218894458179679</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2487,21 +2565,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2510,16 +2588,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8515397516793158</v>
+        <v>0.8207922443092879</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2528,21 +2606,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2551,16 +2629,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9293446588695458</v>
+        <v>0.8219989519570253</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -2569,36 +2647,36 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8880190009284608</v>
+        <v>0.8479481699073983</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2610,39 +2688,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8279793710301075</v>
+        <v>0.9444033496722419</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2651,16 +2729,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2678,48 +2756,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2734,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9148836870071987</v>
+        <v>0.9218894458179679</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2746,21 +2824,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2769,16 +2847,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9009115337528599</v>
+        <v>0.9555245332821085</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2787,21 +2865,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2810,16 +2888,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9293446588695458</v>
+        <v>0.9509564881672975</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>32</v>
@@ -2828,39 +2906,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9075198200427399</v>
+        <v>0.9567534132370727</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>32</v>
@@ -2869,39 +2947,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9514974023965904</v>
+        <v>0.9444033496722419</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -2910,16 +2988,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
